--- a/medicine/Pharmacie/Pierre_Joly/Pierre_Joly.xlsx
+++ b/medicine/Pharmacie/Pierre_Joly/Pierre_Joly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Joly, né le 2 janvier 1930, est un pharmacien et chercheur français en pharmacologie.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Joly est le fils de Constantin Joly, dentiste, et de Philomène Desmarais. Il a un frère dentiste, Jean Joly. Il a une formation de pharmacien et a été interne des hôpitaux de Paris (1951-1956). Il s'est ensuite orienté vers la recherche pharmaceutique industrielle d'abord chez Pechiney Ugine Kuhlmann puis chez Roussel-Uclaf dont il a été vice-président du directoire et directeur général de 1972 à 1993.
-De 1993 à 2010, il a présidé la Fondation pour la recherche médicale[1]. Il a aussi été président de la Fédération française des industries du médicament, et de l'Association française pour la recherche thérapeutique.
+De 1993 à 2010, il a présidé la Fondation pour la recherche médicale. Il a aussi été président de la Fédération française des industries du médicament, et de l'Association française pour la recherche thérapeutique.
 Pierre Joly a été élu membre titulaire de l'Académie nationale de médecine le 11 novembre 1994.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1978 : membre titulaire de l'Académie nationale de pharmacie qu'il a présidé en 2003.
 1994 : membre titulaire de l'Académie nationale de médecine qu'il préside en 2011.</t>
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Histoire et médicament, éditions Glyphe.
 Les Médicaments du futur, éditions Odile Jacob (2009)
